--- a/TestResults/DepnCountryRltspTypeGet.xlsx
+++ b/TestResults/DepnCountryRltspTypeGet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -62,7 +62,7 @@
     <t/>
   </si>
   <si>
-    <t>Success</t>
+    <t>SUCCESS</t>
   </si>
   <si>
     <t>200</t>
@@ -71,42 +71,58 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Total number of records matching between DB &amp; Response: 5, below are the test steps for this test case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_dependentRelationshipId: 3018584528000366802
-DB_dependentRelationshipId: 3018584528000366802
-Response_dependentRelationshipDescription: Part oF
-DB_dependentRelationshipDescription: Part oF
+    <t>Total number of records matching between DB &amp; Response: 2, below are the test steps for this test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_dependentRelationshipTypeId: 5465997346542006717
+DB_dependentRelationshipTypeId: 5465997346542006717
+Response_dependentRelationshipTypeDescription: Test_Countryb2_To_Test_Statee3
+DB_dependentRelationshipTypeDescription: Test_Countryb2_To_Test_Statee3
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_dependentRelationshipId: 4480407964993079113
-DB_dependentRelationshipId: 4480407964993079113
-Response_dependentRelationshipDescription: Territory of
-DB_dependentRelationshipDescription: Territory of
+    <t xml:space="preserve">Response_dependentRelationshipTypeId: 3519318133844723686
+DB_dependentRelationshipTypeId: 3519318133844723686
+Response_dependentRelationshipTypeDescription: Test_Country1_To_Test_State1
+DB_dependentRelationshipTypeDescription: Test_Country1_To_Test_State1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_dependentRelationshipId: 3519318133844723686
-DB_dependentRelationshipId: 3519318133844723686
-Response_dependentRelationshipDescription: Test_Country1_To_Test_State1
-DB_dependentRelationshipDescription: Test_Country1_To_Test_State1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_dependentRelationshipId: 2627792563531089513
-DB_dependentRelationshipId: 2627792563531089513
-Response_dependentRelationshipDescription: Common Wealth of
-DB_dependentRelationshipDescription: Common Wealth of
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_dependentRelationshipId: 3726445344742780141
-DB_dependentRelationshipId: 3726445344742780141
-Response_dependentRelationshipDescription: Test_Countryb2_To_Test_Stateb2
-DB_dependentRelationshipDescription: Test_Countryb2_To_Test_Stateb2
-</t>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Verify that the Exception is received when the URI is not correct</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"3e204c8e-e347-4b4e-a570-d854b633150e",
+		"timeStamp":"2020-06-18T08:29:58.964+0000",
+		"statusCode":"404",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Could not find the GET method for URL /v2/dependentCountryRelationshipTyp"
+		}
+	]
+}</t>
   </si>
 </sst>
 </file>
@@ -114,7 +130,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="68">
+  <fonts count="46">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -127,116 +143,6 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -525,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -660,72 +566,6 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -898,10 +738,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="35">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s" s="36">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s" s="37">
         <v>13</v>
@@ -913,16 +753,14 @@
         <v>15</v>
       </c>
       <c r="F5" t="s" s="40">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s" s="41">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G5" s="41"/>
       <c r="H5" t="s" s="42">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s" s="43">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s" s="44">
         <v>18</v>
@@ -931,78 +769,6 @@
         <v>15</v>
       </c>
       <c r="L5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="46">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s" s="47">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s" s="48">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="49">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="50">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s" s="51">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s" s="52">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s" s="53">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s" s="54">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s" s="55">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s" s="56">
-        <v>15</v>
-      </c>
-      <c r="L6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="57">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s" s="58">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s" s="59">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s" s="60">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="61">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s" s="62">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s" s="63">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s" s="64">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s" s="65">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s" s="66">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s" s="67">
-        <v>15</v>
-      </c>
-      <c r="L7"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
